--- a/integration_dat_incl_cost.xlsx
+++ b/integration_dat_incl_cost.xlsx
@@ -273,100 +273,100 @@
     <t>{'19CPU010Mem1GB.sh': 6}</t>
   </si>
   <si>
-    <t>58.61%</t>
-  </si>
-  <si>
-    <t>54.64%</t>
-  </si>
-  <si>
-    <t>5.77%</t>
-  </si>
-  <si>
-    <t>4.93%</t>
-  </si>
-  <si>
-    <t>13.60%</t>
-  </si>
-  <si>
-    <t>52.04%</t>
-  </si>
-  <si>
-    <t>57.54%</t>
-  </si>
-  <si>
-    <t>12.98%</t>
-  </si>
-  <si>
-    <t>71.92%</t>
-  </si>
-  <si>
-    <t>28.59%</t>
-  </si>
-  <si>
-    <t>8.19%</t>
-  </si>
-  <si>
-    <t>83.22%</t>
-  </si>
-  <si>
-    <t>3.96%</t>
-  </si>
-  <si>
-    <t>44.33%</t>
-  </si>
-  <si>
-    <t>40.24%</t>
-  </si>
-  <si>
-    <t>85.49%</t>
-  </si>
-  <si>
-    <t>13.17%</t>
-  </si>
-  <si>
-    <t>7.74%</t>
-  </si>
-  <si>
-    <t>5.09%</t>
-  </si>
-  <si>
-    <t>26.52%</t>
-  </si>
-  <si>
-    <t>53.78%</t>
-  </si>
-  <si>
-    <t>43.25%</t>
-  </si>
-  <si>
-    <t>37.39%</t>
-  </si>
-  <si>
-    <t>36.17%</t>
-  </si>
-  <si>
-    <t>48.43%</t>
-  </si>
-  <si>
-    <t>46.91%</t>
-  </si>
-  <si>
-    <t>69.45%</t>
-  </si>
-  <si>
-    <t>49.38%</t>
-  </si>
-  <si>
-    <t>60.29%</t>
-  </si>
-  <si>
-    <t>50.56%</t>
-  </si>
-  <si>
-    <t>100.00%</t>
-  </si>
-  <si>
-    <t>53.58%</t>
+    <t>41.39%</t>
+  </si>
+  <si>
+    <t>45.36%</t>
+  </si>
+  <si>
+    <t>94.23%</t>
+  </si>
+  <si>
+    <t>95.07%</t>
+  </si>
+  <si>
+    <t>86.40%</t>
+  </si>
+  <si>
+    <t>47.96%</t>
+  </si>
+  <si>
+    <t>42.46%</t>
+  </si>
+  <si>
+    <t>87.02%</t>
+  </si>
+  <si>
+    <t>28.08%</t>
+  </si>
+  <si>
+    <t>71.41%</t>
+  </si>
+  <si>
+    <t>91.81%</t>
+  </si>
+  <si>
+    <t>16.78%</t>
+  </si>
+  <si>
+    <t>96.04%</t>
+  </si>
+  <si>
+    <t>55.67%</t>
+  </si>
+  <si>
+    <t>59.76%</t>
+  </si>
+  <si>
+    <t>14.51%</t>
+  </si>
+  <si>
+    <t>86.83%</t>
+  </si>
+  <si>
+    <t>92.26%</t>
+  </si>
+  <si>
+    <t>94.91%</t>
+  </si>
+  <si>
+    <t>73.48%</t>
+  </si>
+  <si>
+    <t>46.22%</t>
+  </si>
+  <si>
+    <t>56.75%</t>
+  </si>
+  <si>
+    <t>62.61%</t>
+  </si>
+  <si>
+    <t>63.83%</t>
+  </si>
+  <si>
+    <t>51.57%</t>
+  </si>
+  <si>
+    <t>53.09%</t>
+  </si>
+  <si>
+    <t>30.55%</t>
+  </si>
+  <si>
+    <t>50.62%</t>
+  </si>
+  <si>
+    <t>39.71%</t>
+  </si>
+  <si>
+    <t>49.44%</t>
+  </si>
+  <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>46.42%</t>
   </si>
   <si>
     <t>{'29CPU4Mem8GB.sh': 1, '01noThrottling.sh': 11}</t>
@@ -432,91 +432,91 @@
     <t>{'26CPU2Mem4GB.sh': 12}</t>
   </si>
   <si>
-    <t>30.93%</t>
-  </si>
-  <si>
-    <t>85.19%</t>
-  </si>
-  <si>
-    <t>99.89%</t>
-  </si>
-  <si>
-    <t>98.58%</t>
-  </si>
-  <si>
-    <t>10.24%</t>
-  </si>
-  <si>
-    <t>99.95%</t>
-  </si>
-  <si>
-    <t>9.57%</t>
-  </si>
-  <si>
-    <t>96.09%</t>
-  </si>
-  <si>
-    <t>99.90%</t>
-  </si>
-  <si>
-    <t>24.22%</t>
-  </si>
-  <si>
-    <t>65.53%</t>
-  </si>
-  <si>
-    <t>98.30%</t>
-  </si>
-  <si>
-    <t>96.45%</t>
-  </si>
-  <si>
-    <t>86.38%</t>
-  </si>
-  <si>
-    <t>99.87%</t>
-  </si>
-  <si>
-    <t>99.99%</t>
-  </si>
-  <si>
-    <t>93.67%</t>
-  </si>
-  <si>
-    <t>99.35%</t>
-  </si>
-  <si>
-    <t>4.40%</t>
-  </si>
-  <si>
-    <t>79.38%</t>
-  </si>
-  <si>
-    <t>99.41%</t>
-  </si>
-  <si>
-    <t>5.39%</t>
-  </si>
-  <si>
-    <t>3.58%</t>
-  </si>
-  <si>
-    <t>8.90%</t>
-  </si>
-  <si>
-    <t>4.00%</t>
-  </si>
-  <si>
-    <t>98.03%</t>
-  </si>
-  <si>
-    <t>2.95%</t>
-  </si>
-  <si>
-    <t>93.50%</t>
-  </si>
-  <si>
-    <t>98.36%</t>
+    <t>69.07%</t>
+  </si>
+  <si>
+    <t>14.81%</t>
+  </si>
+  <si>
+    <t>0.11%</t>
+  </si>
+  <si>
+    <t>1.42%</t>
+  </si>
+  <si>
+    <t>89.76%</t>
+  </si>
+  <si>
+    <t>0.05%</t>
+  </si>
+  <si>
+    <t>90.43%</t>
+  </si>
+  <si>
+    <t>3.91%</t>
+  </si>
+  <si>
+    <t>0.10%</t>
+  </si>
+  <si>
+    <t>75.78%</t>
+  </si>
+  <si>
+    <t>34.47%</t>
+  </si>
+  <si>
+    <t>1.70%</t>
+  </si>
+  <si>
+    <t>3.55%</t>
+  </si>
+  <si>
+    <t>13.62%</t>
+  </si>
+  <si>
+    <t>0.13%</t>
+  </si>
+  <si>
+    <t>0.01%</t>
+  </si>
+  <si>
+    <t>6.33%</t>
+  </si>
+  <si>
+    <t>0.65%</t>
+  </si>
+  <si>
+    <t>95.60%</t>
+  </si>
+  <si>
+    <t>20.62%</t>
+  </si>
+  <si>
+    <t>0.59%</t>
+  </si>
+  <si>
+    <t>94.61%</t>
+  </si>
+  <si>
+    <t>96.42%</t>
+  </si>
+  <si>
+    <t>91.10%</t>
+  </si>
+  <si>
+    <t>96.00%</t>
+  </si>
+  <si>
+    <t>1.97%</t>
+  </si>
+  <si>
+    <t>97.05%</t>
+  </si>
+  <si>
+    <t>6.50%</t>
+  </si>
+  <si>
+    <t>1.64%</t>
   </si>
   <si>
     <t>activiti_dot-0.2</t>
@@ -648,55 +648,55 @@
     <t>{'28CPU2Mem16GB.sh': 2}</t>
   </si>
   <si>
-    <t>56.70%</t>
-  </si>
-  <si>
-    <t>54.63%</t>
-  </si>
-  <si>
-    <t>4.56%</t>
-  </si>
-  <si>
-    <t>9.12%</t>
-  </si>
-  <si>
-    <t>52.00%</t>
-  </si>
-  <si>
-    <t>12.90%</t>
-  </si>
-  <si>
-    <t>77.23%</t>
-  </si>
-  <si>
-    <t>3.70%</t>
-  </si>
-  <si>
-    <t>44.30%</t>
-  </si>
-  <si>
-    <t>40.20%</t>
-  </si>
-  <si>
-    <t>7.39%</t>
-  </si>
-  <si>
-    <t>5.04%</t>
-  </si>
-  <si>
-    <t>22.26%</t>
-  </si>
-  <si>
-    <t>52.85%</t>
-  </si>
-  <si>
-    <t>37.36%</t>
-  </si>
-  <si>
-    <t>35.43%</t>
-  </si>
-  <si>
-    <t>66.58%</t>
+    <t>43.30%</t>
+  </si>
+  <si>
+    <t>45.37%</t>
+  </si>
+  <si>
+    <t>95.44%</t>
+  </si>
+  <si>
+    <t>90.88%</t>
+  </si>
+  <si>
+    <t>48.00%</t>
+  </si>
+  <si>
+    <t>87.10%</t>
+  </si>
+  <si>
+    <t>22.77%</t>
+  </si>
+  <si>
+    <t>96.30%</t>
+  </si>
+  <si>
+    <t>55.70%</t>
+  </si>
+  <si>
+    <t>59.80%</t>
+  </si>
+  <si>
+    <t>92.61%</t>
+  </si>
+  <si>
+    <t>94.96%</t>
+  </si>
+  <si>
+    <t>77.74%</t>
+  </si>
+  <si>
+    <t>47.15%</t>
+  </si>
+  <si>
+    <t>62.64%</t>
+  </si>
+  <si>
+    <t>64.57%</t>
+  </si>
+  <si>
+    <t>33.42%</t>
   </si>
   <si>
     <t>{'19CPU010Mem1GB.sh': 2, '20CPU010Mem2GB.sh': 1, '21CPU025Mem2GB.sh': 3, '24CPU1Mem4GB.sh': 1, '25CPU1Mem8GB.sh': 1, '26CPU2Mem4GB.sh': 2}</t>
@@ -726,16 +726,16 @@
     <t>{'26CPU2Mem4GB.sh': 10}</t>
   </si>
   <si>
-    <t>31.03%</t>
-  </si>
-  <si>
-    <t>94.14%</t>
-  </si>
-  <si>
-    <t>98.85%</t>
-  </si>
-  <si>
-    <t>98.41%</t>
+    <t>68.97%</t>
+  </si>
+  <si>
+    <t>5.86%</t>
+  </si>
+  <si>
+    <t>1.15%</t>
+  </si>
+  <si>
+    <t>1.59%</t>
   </si>
   <si>
     <t>activiti_dot-0.4</t>
@@ -852,19 +852,19 @@
     <t>6-0.4-cheap</t>
   </si>
   <si>
-    <t>22.05%</t>
-  </si>
-  <si>
-    <t>51.96%</t>
-  </si>
-  <si>
-    <t>3.66%</t>
-  </si>
-  <si>
-    <t>22.25%</t>
-  </si>
-  <si>
-    <t>37.34%</t>
+    <t>77.95%</t>
+  </si>
+  <si>
+    <t>48.04%</t>
+  </si>
+  <si>
+    <t>96.34%</t>
+  </si>
+  <si>
+    <t>77.75%</t>
+  </si>
+  <si>
+    <t>62.66%</t>
   </si>
   <si>
     <t>{'20CPU010Mem2GB.sh': 1, '21CPU025Mem2GB.sh': 1, '24CPU1Mem4GB.sh': 1, '25CPU1Mem8GB.sh': 1, '27CPU2Mem8GB.sh': 2}</t>
@@ -999,19 +999,19 @@
     <t>6-0.6-cheap</t>
   </si>
   <si>
-    <t>56.68%</t>
-  </si>
-  <si>
-    <t>7.68%</t>
-  </si>
-  <si>
-    <t>3.63%</t>
-  </si>
-  <si>
-    <t>5.02%</t>
-  </si>
-  <si>
-    <t>37.32%</t>
+    <t>43.32%</t>
+  </si>
+  <si>
+    <t>92.32%</t>
+  </si>
+  <si>
+    <t>96.37%</t>
+  </si>
+  <si>
+    <t>94.98%</t>
+  </si>
+  <si>
+    <t>62.68%</t>
   </si>
   <si>
     <t>{'21CPU025Mem2GB.sh': 1, '22CPU05Mem2GB.sh': 2, '23CPU05Mem4GB.sh': 1, '24CPU1Mem4GB.sh': 2, '26CPU2Mem4GB.sh': 1, '27CPU2Mem8GB.sh': 1, '01noThrottling.sh': 2}</t>
@@ -1149,7 +1149,7 @@
     <t>6-0.8-cheap</t>
   </si>
   <si>
-    <t>3.62%</t>
+    <t>96.38%</t>
   </si>
   <si>
     <t>{'28CPU2Mem16GB.sh': 1, '24CPU1Mem4GB.sh': 1, '25CPU1Mem8GB.sh': 1, '26CPU2Mem4GB.sh': 1}</t>
@@ -1173,7 +1173,7 @@
     <t>1-0.8-fast</t>
   </si>
   <si>
-    <t>92.99%</t>
+    <t>7.01%</t>
   </si>
   <si>
     <t>activiti_dot-1</t>
@@ -1290,16 +1290,16 @@
     <t>{'27CPU2Mem8GB.sh': 6}</t>
   </si>
   <si>
-    <t>56.53%</t>
-  </si>
-  <si>
-    <t>52.37%</t>
-  </si>
-  <si>
-    <t>4.88%</t>
-  </si>
-  <si>
-    <t>52.72%</t>
+    <t>43.47%</t>
+  </si>
+  <si>
+    <t>47.63%</t>
+  </si>
+  <si>
+    <t>95.12%</t>
+  </si>
+  <si>
+    <t>47.28%</t>
   </si>
   <si>
     <t>{'22CPU05Mem2GB.sh': 1, '23CPU05Mem4GB.sh': 1, '24CPU1Mem4GB.sh': 1, '25CPU1Mem8GB.sh': 1, '26CPU2Mem4GB.sh': 1, '29CPU4Mem8GB.sh': 1}</t>
